--- a/Data/Processed/Angiosperms/missing_powo_ipni/Valerianaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Valerianaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Mus. Nac. Rio de Janeiro 13: 25. 1903 </t>
+          <t>Arq. Mus. Nac. Rio de Janeiro 13: 25. 1903</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 26(3-4): 435. 1899 [31 Jan 1899] </t>
+          <t>Bot. Jahrb. Syst. 26(3-4): 435. 1899 [31 Jan 1899]</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 17: 119. 1965 </t>
+          <t>Brittonia 17: 119. 1965</t>
         </is>
       </c>
       <c r="J46" t="b">
